--- a/data/pca/factorExposure/factorExposure_2017-11-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-11-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02191114083983969</v>
+        <v>0.01240441726090429</v>
       </c>
       <c r="C2">
-        <v>0.002535143078503705</v>
+        <v>0.03912046455932754</v>
       </c>
       <c r="D2">
-        <v>0.002690644607851566</v>
+        <v>-0.02857658184512635</v>
       </c>
       <c r="E2">
-        <v>-0.02607376496930215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02691220968076713</v>
+      </c>
+      <c r="F2">
+        <v>-0.03523471951175371</v>
+      </c>
+      <c r="G2">
+        <v>-0.01261766010507055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0007918511992082354</v>
+        <v>0.05683327872971047</v>
       </c>
       <c r="C3">
-        <v>0.06352704328084273</v>
+        <v>0.08054746840914719</v>
       </c>
       <c r="D3">
-        <v>0.006950333466557219</v>
+        <v>-0.01421884870601431</v>
       </c>
       <c r="E3">
-        <v>0.02325963251276616</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.08037180100861657</v>
+      </c>
+      <c r="F3">
+        <v>-0.05956623836413606</v>
+      </c>
+      <c r="G3">
+        <v>-0.06799027825296164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02268912651128144</v>
+        <v>0.05461143285941907</v>
       </c>
       <c r="C4">
-        <v>0.02773954857627322</v>
+        <v>0.0616036915104109</v>
       </c>
       <c r="D4">
-        <v>0.02719484700103403</v>
+        <v>-0.02208061133058125</v>
       </c>
       <c r="E4">
-        <v>-0.04185063816897069</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.0008783256248954572</v>
+      </c>
+      <c r="F4">
+        <v>-0.01671172833011898</v>
+      </c>
+      <c r="G4">
+        <v>-0.04122639140156185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01471702386919742</v>
+        <v>0.03259017260320405</v>
       </c>
       <c r="C6">
-        <v>0.04578304244981006</v>
+        <v>0.05622210719294185</v>
       </c>
       <c r="D6">
-        <v>0.02206413400516915</v>
+        <v>-0.01598331949935301</v>
       </c>
       <c r="E6">
-        <v>-0.06663998537067994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.004308578681040186</v>
+      </c>
+      <c r="F6">
+        <v>-0.01770174902984926</v>
+      </c>
+      <c r="G6">
+        <v>-0.0226352635217642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01308513943616356</v>
+        <v>0.0185327241223293</v>
       </c>
       <c r="C7">
-        <v>0.0243121304505347</v>
+        <v>0.03834469836274705</v>
       </c>
       <c r="D7">
-        <v>0.07126217778847373</v>
+        <v>-0.0125082021893526</v>
       </c>
       <c r="E7">
-        <v>0.006509867787498409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01373634894853535</v>
+      </c>
+      <c r="F7">
+        <v>-0.01000172071622835</v>
+      </c>
+      <c r="G7">
+        <v>-0.07527586063804718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.005216048958705003</v>
+        <v>-0.003211411515765527</v>
       </c>
       <c r="C8">
-        <v>-0.01882900164564681</v>
+        <v>0.01427386494050597</v>
       </c>
       <c r="D8">
-        <v>0.01511044589392753</v>
+        <v>-0.003845841868330806</v>
       </c>
       <c r="E8">
-        <v>-0.02292430285686203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01654470687011153</v>
+      </c>
+      <c r="F8">
+        <v>-0.02347087027375452</v>
+      </c>
+      <c r="G8">
+        <v>-0.02530585603962318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01535112624731219</v>
+        <v>0.02666576369999454</v>
       </c>
       <c r="C9">
-        <v>0.02526330781291628</v>
+        <v>0.04259632450300551</v>
       </c>
       <c r="D9">
-        <v>0.01838470650308838</v>
+        <v>-0.01533571671065479</v>
       </c>
       <c r="E9">
-        <v>-0.03138459858908953</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.003495328253814258</v>
+      </c>
+      <c r="F9">
+        <v>-0.01917500752866878</v>
+      </c>
+      <c r="G9">
+        <v>-0.03168964954062738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.01346880917201374</v>
+        <v>0.08517369431195315</v>
       </c>
       <c r="C10">
-        <v>0.09956698693484048</v>
+        <v>-0.1856105016603279</v>
       </c>
       <c r="D10">
-        <v>-0.03818699887225507</v>
+        <v>0.01868438080881101</v>
       </c>
       <c r="E10">
-        <v>0.1436649663689136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02111884046730122</v>
+      </c>
+      <c r="F10">
+        <v>0.01317676679813505</v>
+      </c>
+      <c r="G10">
+        <v>-0.03674322823797063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0006513261369971069</v>
+        <v>0.03585729343178191</v>
       </c>
       <c r="C11">
-        <v>0.02473422938191841</v>
+        <v>0.05322862812400437</v>
       </c>
       <c r="D11">
-        <v>0.00658110898070935</v>
+        <v>-0.001110269039455102</v>
       </c>
       <c r="E11">
-        <v>-0.05003956057907306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.003169994770630001</v>
+      </c>
+      <c r="F11">
+        <v>-0.02370460653075854</v>
+      </c>
+      <c r="G11">
+        <v>-0.01209368744479104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.009594122007406747</v>
+        <v>0.03248328860994142</v>
       </c>
       <c r="C12">
-        <v>0.02619885091741005</v>
+        <v>0.04412172650205193</v>
       </c>
       <c r="D12">
-        <v>0.01119490156568954</v>
+        <v>-0.005362652485758754</v>
       </c>
       <c r="E12">
-        <v>-0.04237320578913764</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.009416412889813859</v>
+      </c>
+      <c r="F12">
+        <v>-0.007241753099687669</v>
+      </c>
+      <c r="G12">
+        <v>-0.01723992397183239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01964835516977686</v>
+        <v>0.01103947125235704</v>
       </c>
       <c r="C13">
-        <v>0.01677361741597591</v>
+        <v>0.03527911967787429</v>
       </c>
       <c r="D13">
-        <v>0.002867389492367094</v>
+        <v>-0.02466658040612431</v>
       </c>
       <c r="E13">
-        <v>-0.02380738432173573</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02065261678652582</v>
+      </c>
+      <c r="F13">
+        <v>-0.02490013219154951</v>
+      </c>
+      <c r="G13">
+        <v>-0.02514809017182476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007852719088403669</v>
+        <v>0.00802589184431967</v>
       </c>
       <c r="C14">
-        <v>0.01178051095995146</v>
+        <v>0.02514906062251025</v>
       </c>
       <c r="D14">
-        <v>0.01813839463326648</v>
+        <v>-0.008329751987203329</v>
       </c>
       <c r="E14">
-        <v>-0.009990415252398356</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.004973825751487397</v>
+      </c>
+      <c r="F14">
+        <v>-0.002907613967013486</v>
+      </c>
+      <c r="G14">
+        <v>-0.03564435825914133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001374075312795035</v>
+        <v>0.03203471363273382</v>
       </c>
       <c r="C16">
-        <v>0.02347234276035455</v>
+        <v>0.0437231411525185</v>
       </c>
       <c r="D16">
-        <v>0.01323287381810924</v>
+        <v>-0.0007763805931513773</v>
       </c>
       <c r="E16">
-        <v>-0.04800015880456721</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.001024253716445897</v>
+      </c>
+      <c r="F16">
+        <v>-0.009896741925028294</v>
+      </c>
+      <c r="G16">
+        <v>-0.01603045220491897</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01051725179295518</v>
+        <v>0.03103525154010222</v>
       </c>
       <c r="C19">
-        <v>0.02008160675783306</v>
+        <v>0.05614695539013397</v>
       </c>
       <c r="D19">
-        <v>0.01403699318226549</v>
+        <v>-0.01519659846579534</v>
       </c>
       <c r="E19">
-        <v>-0.04856322401091211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.0391759237989961</v>
+      </c>
+      <c r="F19">
+        <v>-0.03854484404336011</v>
+      </c>
+      <c r="G19">
+        <v>-0.03401173924989508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.00793553981387164</v>
+        <v>0.01016149045268733</v>
       </c>
       <c r="C20">
-        <v>0.003631339075871887</v>
+        <v>0.03531466819227203</v>
       </c>
       <c r="D20">
-        <v>0.005862123824575688</v>
+        <v>-0.01307755415435141</v>
       </c>
       <c r="E20">
-        <v>-0.003960668727203145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.01961130419879269</v>
+      </c>
+      <c r="F20">
+        <v>-0.007355626638359395</v>
+      </c>
+      <c r="G20">
+        <v>-0.02732496717894426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01288317057818802</v>
+        <v>0.01265513265751249</v>
       </c>
       <c r="C21">
-        <v>0.03668647358505617</v>
+        <v>0.0343156125045302</v>
       </c>
       <c r="D21">
-        <v>0.02826659206792574</v>
+        <v>-0.01594636250686829</v>
       </c>
       <c r="E21">
-        <v>-0.02281093887809424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.02732321011256724</v>
+      </c>
+      <c r="F21">
+        <v>-0.02043263926149125</v>
+      </c>
+      <c r="G21">
+        <v>-0.04891692301257283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.00347368779324588</v>
+        <v>0.02629188258053963</v>
       </c>
       <c r="C24">
-        <v>0.02181210833327709</v>
+        <v>0.04664796798448328</v>
       </c>
       <c r="D24">
-        <v>0.0106254372395255</v>
+        <v>-0.006195698579406572</v>
       </c>
       <c r="E24">
-        <v>-0.04254333088147718</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.006787677817366271</v>
+      </c>
+      <c r="F24">
+        <v>-0.01935799678865535</v>
+      </c>
+      <c r="G24">
+        <v>-0.01574488840134613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01163912844123149</v>
+        <v>0.04334188270703668</v>
       </c>
       <c r="C25">
-        <v>0.03346217344959016</v>
+        <v>0.05272512197058605</v>
       </c>
       <c r="D25">
-        <v>0.00854466262790239</v>
+        <v>-0.009951565397913829</v>
       </c>
       <c r="E25">
-        <v>-0.04477291791954552</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01370023202801703</v>
+      </c>
+      <c r="F25">
+        <v>-0.01412804832160397</v>
+      </c>
+      <c r="G25">
+        <v>-0.02139054263535076</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02184620984758597</v>
+        <v>0.006691200693126543</v>
       </c>
       <c r="C26">
-        <v>0.0007278867954365562</v>
+        <v>0.008592415357213386</v>
       </c>
       <c r="D26">
-        <v>0.01025193546904441</v>
+        <v>-0.02387913059311942</v>
       </c>
       <c r="E26">
-        <v>-0.002117197340756584</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.008837065119818365</v>
+      </c>
+      <c r="F26">
+        <v>-0.007018756632482524</v>
+      </c>
+      <c r="G26">
+        <v>-0.02557834039661039</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.02878586327454676</v>
+        <v>0.1087250432088437</v>
       </c>
       <c r="C28">
-        <v>0.1461977600301158</v>
+        <v>-0.2271128218882199</v>
       </c>
       <c r="D28">
-        <v>-0.05857411291438542</v>
+        <v>0.0102044796931764</v>
       </c>
       <c r="E28">
-        <v>0.2206757324030925</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.008432859902959619</v>
+      </c>
+      <c r="F28">
+        <v>0.006630954554573903</v>
+      </c>
+      <c r="G28">
+        <v>-0.05217583027128348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007384972303888862</v>
+        <v>0.01248500939559333</v>
       </c>
       <c r="C29">
-        <v>0.01523711383968376</v>
+        <v>0.01945982273929877</v>
       </c>
       <c r="D29">
-        <v>0.01312940569086061</v>
+        <v>-0.007128870093779299</v>
       </c>
       <c r="E29">
-        <v>-0.00856458792236283</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.00282789916036862</v>
+      </c>
+      <c r="F29">
+        <v>0.006260979376977163</v>
+      </c>
+      <c r="G29">
+        <v>-0.02922376933480281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03308203136031856</v>
+        <v>0.03948973823515101</v>
       </c>
       <c r="C30">
-        <v>0.03012790717169559</v>
+        <v>0.07139317618093712</v>
       </c>
       <c r="D30">
-        <v>-0.03279442435388328</v>
+        <v>-0.02681211437526128</v>
       </c>
       <c r="E30">
-        <v>-0.08833287820978647</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.0189901468901695</v>
+      </c>
+      <c r="F30">
+        <v>-0.04621853983629616</v>
+      </c>
+      <c r="G30">
+        <v>0.007575124347294406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.002968881181389556</v>
+        <v>0.04188918992495066</v>
       </c>
       <c r="C31">
-        <v>0.0459432711527285</v>
+        <v>0.03102170221248974</v>
       </c>
       <c r="D31">
-        <v>0.01954682571354944</v>
+        <v>-0.003064071696174521</v>
       </c>
       <c r="E31">
-        <v>-0.02505274914995987</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01159447205463061</v>
+      </c>
+      <c r="F31">
+        <v>0.03643376247712438</v>
+      </c>
+      <c r="G31">
+        <v>-0.02900738582149441</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.01089407983693039</v>
+        <v>0.003578718721940982</v>
       </c>
       <c r="C32">
-        <v>0.001901355105222611</v>
+        <v>0.03517799001227945</v>
       </c>
       <c r="D32">
-        <v>0.03124221287662104</v>
+        <v>0.004669516045289616</v>
       </c>
       <c r="E32">
-        <v>-0.0216687456490202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01203932983592815</v>
+      </c>
+      <c r="F32">
+        <v>-0.07847390576894246</v>
+      </c>
+      <c r="G32">
+        <v>-0.05180169528439311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.007825050280773464</v>
+        <v>0.02907390682576374</v>
       </c>
       <c r="C33">
-        <v>0.02961310846673715</v>
+        <v>0.05126973383925821</v>
       </c>
       <c r="D33">
-        <v>-0.01084337974881457</v>
+        <v>-0.0138439865979268</v>
       </c>
       <c r="E33">
-        <v>-0.04193844511520477</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.01756818953988023</v>
+      </c>
+      <c r="F33">
+        <v>-0.02559002545542487</v>
+      </c>
+      <c r="G33">
+        <v>-0.0203490933870322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.004448163483222383</v>
+        <v>0.046824388044221</v>
       </c>
       <c r="C34">
-        <v>0.02655180347572947</v>
+        <v>0.05388313344590971</v>
       </c>
       <c r="D34">
-        <v>0.02044462292378381</v>
+        <v>0.006230259453231701</v>
       </c>
       <c r="E34">
-        <v>-0.04486032011746803</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.01287907797258045</v>
+      </c>
+      <c r="F34">
+        <v>-0.021154549923601</v>
+      </c>
+      <c r="G34">
+        <v>-0.02551060928272861</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.0107894843944429</v>
+        <v>0.010677420021569</v>
       </c>
       <c r="C36">
-        <v>0.01588200436492397</v>
+        <v>0.006020451052411267</v>
       </c>
       <c r="D36">
-        <v>0.005331978098855598</v>
+        <v>-0.01110939998433541</v>
       </c>
       <c r="E36">
-        <v>-0.004091779745117867</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.00100620325385807</v>
+      </c>
+      <c r="F36">
+        <v>0.0002195804141336079</v>
+      </c>
+      <c r="G36">
+        <v>-0.01772177203346499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.005515937123559236</v>
+        <v>0.03379708388676426</v>
       </c>
       <c r="C38">
-        <v>0.02405815254267395</v>
+        <v>0.02223670834342884</v>
       </c>
       <c r="D38">
-        <v>0.005628187015271083</v>
+        <v>0.008187617801372685</v>
       </c>
       <c r="E38">
-        <v>-0.02294592366532239</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.003355856811374188</v>
+      </c>
+      <c r="F38">
+        <v>-0.003944786164420636</v>
+      </c>
+      <c r="G38">
+        <v>-0.02759790987729639</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.006666285853996235</v>
+        <v>0.03196031061688697</v>
       </c>
       <c r="C39">
-        <v>0.01187253338670474</v>
+        <v>0.08352332993436386</v>
       </c>
       <c r="D39">
-        <v>0.02124022022359131</v>
+        <v>-0.01148725844466628</v>
       </c>
       <c r="E39">
-        <v>-0.0692174686407339</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.008705208258672667</v>
+      </c>
+      <c r="F39">
+        <v>-0.03984752365287383</v>
+      </c>
+      <c r="G39">
+        <v>-0.01671317762193266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.007692721638464713</v>
+        <v>0.01960175956533734</v>
       </c>
       <c r="C40">
-        <v>0.02204105425567534</v>
+        <v>0.03191450145738804</v>
       </c>
       <c r="D40">
-        <v>0.006895732243007375</v>
+        <v>-0.01284361309820021</v>
       </c>
       <c r="E40">
-        <v>-0.04673232083452879</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01457079712047448</v>
+      </c>
+      <c r="F40">
+        <v>-0.02300706485893993</v>
+      </c>
+      <c r="G40">
+        <v>-0.0177496074059969</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.003131261692419475</v>
+        <v>0.01230463894239625</v>
       </c>
       <c r="C41">
-        <v>0.01642807421013895</v>
+        <v>-0.002034691519252894</v>
       </c>
       <c r="D41">
-        <v>-0.001469007467694984</v>
+        <v>-0.003363496871074044</v>
       </c>
       <c r="E41">
-        <v>0.0068760340445894</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.002828810240437081</v>
+      </c>
+      <c r="F41">
+        <v>-0.0003369928808875445</v>
+      </c>
+      <c r="G41">
+        <v>-0.01204134165558125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.08770237798105227</v>
+        <v>0.03546612476614049</v>
       </c>
       <c r="C42">
-        <v>0.1052713594661162</v>
+        <v>0.05455635580121269</v>
       </c>
       <c r="D42">
-        <v>-0.0779880294943938</v>
+        <v>-0.102211502822154</v>
       </c>
       <c r="E42">
-        <v>-0.1665745171524039</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.06242085958400101</v>
+      </c>
+      <c r="F42">
+        <v>0.1125336589783886</v>
+      </c>
+      <c r="G42">
+        <v>0.2144206327383663</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.009633979912610459</v>
+        <v>0.02722911820539728</v>
       </c>
       <c r="C43">
-        <v>0.01651000085854034</v>
+        <v>0.007134535314841899</v>
       </c>
       <c r="D43">
-        <v>-0.0011148575690257</v>
+        <v>-0.003527635400527477</v>
       </c>
       <c r="E43">
-        <v>0.001410299117988079</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.0007671246017451027</v>
+      </c>
+      <c r="F43">
+        <v>-0.0005813746389238579</v>
+      </c>
+      <c r="G43">
+        <v>-0.01621808148688347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002970057489808003</v>
+        <v>0.01687288810157647</v>
       </c>
       <c r="C44">
-        <v>0.002716580382242639</v>
+        <v>0.04851802897271298</v>
       </c>
       <c r="D44">
-        <v>0.01781214966673444</v>
+        <v>-0.006436482004742636</v>
       </c>
       <c r="E44">
-        <v>-0.01951326460385274</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01752873904225497</v>
+      </c>
+      <c r="F44">
+        <v>-0.02609140316791119</v>
+      </c>
+      <c r="G44">
+        <v>-0.03152340000636736</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.009138641264694379</v>
+        <v>0.002439927899256111</v>
       </c>
       <c r="C46">
-        <v>0.005884767901213276</v>
+        <v>0.01730155758611446</v>
       </c>
       <c r="D46">
-        <v>0.00975295285575343</v>
+        <v>-0.01156707478680928</v>
       </c>
       <c r="E46">
-        <v>-0.02589135553053543</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.003201413183987463</v>
+      </c>
+      <c r="F46">
+        <v>0.008343508624030382</v>
+      </c>
+      <c r="G46">
+        <v>-0.02169150825802737</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.00289072513966191</v>
+        <v>0.07249493934099294</v>
       </c>
       <c r="C47">
-        <v>0.06740640649741735</v>
+        <v>0.06204783656810258</v>
       </c>
       <c r="D47">
-        <v>0.007269984908753027</v>
+        <v>0.005202959844870039</v>
       </c>
       <c r="E47">
-        <v>-0.04009538861961143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01476966127163056</v>
+      </c>
+      <c r="F47">
+        <v>0.05980697241176508</v>
+      </c>
+      <c r="G47">
+        <v>-0.02110875496201507</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.0024408713176064</v>
+        <v>0.01867965847046834</v>
       </c>
       <c r="C48">
-        <v>0.02834526221313129</v>
+        <v>0.010245563230454</v>
       </c>
       <c r="D48">
-        <v>0.006805220056594858</v>
+        <v>-0.0008897321513629231</v>
       </c>
       <c r="E48">
-        <v>-0.01109617140784892</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.003034443691598831</v>
+      </c>
+      <c r="F48">
+        <v>0.01364676849523987</v>
+      </c>
+      <c r="G48">
+        <v>-0.02254641911020773</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.001856552558685799</v>
+        <v>0.07676513216014694</v>
       </c>
       <c r="C50">
-        <v>0.06639523307079502</v>
+        <v>0.06318655043361113</v>
       </c>
       <c r="D50">
-        <v>0.03744942475976987</v>
+        <v>0.004083865236593728</v>
       </c>
       <c r="E50">
-        <v>-0.04767457847810105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01360565121247811</v>
+      </c>
+      <c r="F50">
+        <v>0.05474913246964449</v>
+      </c>
+      <c r="G50">
+        <v>-0.04447931961875019</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01132681604297168</v>
+        <v>0.01422910707291209</v>
       </c>
       <c r="C51">
-        <v>0.008039732011217013</v>
+        <v>0.0276815693225592</v>
       </c>
       <c r="D51">
-        <v>0.01222870780337132</v>
+        <v>-0.008706485043253729</v>
       </c>
       <c r="E51">
-        <v>0.01259200664606101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.00474358366493277</v>
+      </c>
+      <c r="F51">
+        <v>-0.03247719693235308</v>
+      </c>
+      <c r="G51">
+        <v>-0.04013354698410083</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.005939416507472208</v>
+        <v>0.09683188303014942</v>
       </c>
       <c r="C53">
-        <v>0.08651771699852179</v>
+        <v>0.07405371361639039</v>
       </c>
       <c r="D53">
-        <v>0.02752784271144358</v>
+        <v>0.006401319921938376</v>
       </c>
       <c r="E53">
-        <v>-0.06988282868960576</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.04074290332529441</v>
+      </c>
+      <c r="F53">
+        <v>0.06616092778802853</v>
+      </c>
+      <c r="G53">
+        <v>-0.02261516404696749</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0002012516716260687</v>
+        <v>0.02867271773608532</v>
       </c>
       <c r="C54">
-        <v>0.02833164067427996</v>
+        <v>0.00456998408040877</v>
       </c>
       <c r="D54">
-        <v>0.01024929192660936</v>
+        <v>0.004269146307870723</v>
       </c>
       <c r="E54">
-        <v>-0.005865733059352355</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.002847060802624924</v>
+      </c>
+      <c r="F54">
+        <v>0.002444691136536435</v>
+      </c>
+      <c r="G54">
+        <v>-0.02847084744752762</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.003725945602889676</v>
+        <v>0.0728083460073182</v>
       </c>
       <c r="C55">
-        <v>0.06893709234856867</v>
+        <v>0.06961388791971682</v>
       </c>
       <c r="D55">
-        <v>0.01765704875843153</v>
+        <v>0.005026939576741702</v>
       </c>
       <c r="E55">
-        <v>-0.07610741514797743</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02721077275429657</v>
+      </c>
+      <c r="F55">
+        <v>0.06213758552901526</v>
+      </c>
+      <c r="G55">
+        <v>-0.01080053793666641</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.003455467906975887</v>
+        <v>0.1484716831905129</v>
       </c>
       <c r="C56">
-        <v>0.129531871240703</v>
+        <v>0.09709748626744966</v>
       </c>
       <c r="D56">
-        <v>0.01949368247510715</v>
+        <v>0.0153861675120832</v>
       </c>
       <c r="E56">
-        <v>-0.09244871736076243</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04496731602404154</v>
+      </c>
+      <c r="F56">
+        <v>0.105474489425276</v>
+      </c>
+      <c r="G56">
+        <v>0.000510257582874693</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02577458876932879</v>
+        <v>0.01313015253803693</v>
       </c>
       <c r="C57">
-        <v>0.03171701289789696</v>
+        <v>0.01177100081665043</v>
       </c>
       <c r="D57">
-        <v>0.001899794122789131</v>
+        <v>-0.02363782550649286</v>
       </c>
       <c r="E57">
-        <v>-0.0310808116854845</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02815206515213063</v>
+      </c>
+      <c r="F57">
+        <v>-0.01568871612235683</v>
+      </c>
+      <c r="G57">
+        <v>-0.02168301893230866</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.005075209221831459</v>
+        <v>0.07135459570248813</v>
       </c>
       <c r="C58">
-        <v>0.1308604572303299</v>
+        <v>0.07612790161066219</v>
       </c>
       <c r="D58">
-        <v>-0.1001405492432763</v>
+        <v>-0.0209926982163946</v>
       </c>
       <c r="E58">
-        <v>-0.14753594569103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9443859612310194</v>
+      </c>
+      <c r="F58">
+        <v>0.2260641763684471</v>
+      </c>
+      <c r="G58">
+        <v>-0.06675209974564476</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.0347646773797764</v>
+        <v>0.1478343986894299</v>
       </c>
       <c r="C59">
-        <v>0.1495844620516139</v>
+        <v>-0.217354782063893</v>
       </c>
       <c r="D59">
-        <v>-0.07916183856340096</v>
+        <v>0.01744843320151285</v>
       </c>
       <c r="E59">
-        <v>0.1846542135221159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01678194673059365</v>
+      </c>
+      <c r="F59">
+        <v>-0.01048167356853581</v>
+      </c>
+      <c r="G59">
+        <v>-0.01648720924156983</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.03512094945596031</v>
+        <v>0.2961594854056034</v>
       </c>
       <c r="C60">
-        <v>0.2013993687171158</v>
+        <v>0.0797750928406171</v>
       </c>
       <c r="D60">
-        <v>-0.03977101125738738</v>
+        <v>-0.006368104061631759</v>
       </c>
       <c r="E60">
-        <v>-0.06442684472450415</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.02310291038396994</v>
+      </c>
+      <c r="F60">
+        <v>-0.3800394392147329</v>
+      </c>
+      <c r="G60">
+        <v>0.06612598875856757</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0003279824562373275</v>
+        <v>0.03254881675751116</v>
       </c>
       <c r="C61">
-        <v>0.02852307653402226</v>
+        <v>0.06367830110393673</v>
       </c>
       <c r="D61">
-        <v>0.01328121988107199</v>
+        <v>-0.004795611666269776</v>
       </c>
       <c r="E61">
-        <v>-0.06240011218920264</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.005105331293164727</v>
+      </c>
+      <c r="F61">
+        <v>-0.02418337810427607</v>
+      </c>
+      <c r="G61">
+        <v>-0.01833666983796849</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007020296199765764</v>
+        <v>0.01470216670189179</v>
       </c>
       <c r="C63">
-        <v>0.01583132343326174</v>
+        <v>0.02606375762158005</v>
       </c>
       <c r="D63">
-        <v>0.01052699089871145</v>
+        <v>-0.007603388042771123</v>
       </c>
       <c r="E63">
-        <v>-0.02080259587351938</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.01294030833216059</v>
+      </c>
+      <c r="F63">
+        <v>0.01162767487227926</v>
+      </c>
+      <c r="G63">
+        <v>-0.0271869069923838</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.007487062888786942</v>
+        <v>0.04641741199646487</v>
       </c>
       <c r="C64">
-        <v>0.04133877919875908</v>
+        <v>0.03500647752302855</v>
       </c>
       <c r="D64">
-        <v>0.009679492113343496</v>
+        <v>-0.004453518386383261</v>
       </c>
       <c r="E64">
-        <v>-0.04769729811926769</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.009976593945532923</v>
+      </c>
+      <c r="F64">
+        <v>-0.01431622921333545</v>
+      </c>
+      <c r="G64">
+        <v>-0.01618376934948743</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01735582214772061</v>
+        <v>0.08118974220733927</v>
       </c>
       <c r="C65">
-        <v>0.05359028432651482</v>
+        <v>0.06648023012226914</v>
       </c>
       <c r="D65">
-        <v>0.02241495063779469</v>
+        <v>-0.01482253176377126</v>
       </c>
       <c r="E65">
-        <v>-0.07155561373475762</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.004029498516152235</v>
+      </c>
+      <c r="F65">
+        <v>-0.03943139840763932</v>
+      </c>
+      <c r="G65">
+        <v>-0.01045031977620963</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005813917026462149</v>
+        <v>0.05422756983740856</v>
       </c>
       <c r="C66">
-        <v>0.03072555005874091</v>
+        <v>0.1163335508707029</v>
       </c>
       <c r="D66">
-        <v>0.008819722285463223</v>
+        <v>-0.01050683690605022</v>
       </c>
       <c r="E66">
-        <v>-0.09747235335137958</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.01083801379413292</v>
+      </c>
+      <c r="F66">
+        <v>-0.04585322219846167</v>
+      </c>
+      <c r="G66">
+        <v>-0.006672353953368924</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.003053693994768956</v>
+        <v>0.05866388577319754</v>
       </c>
       <c r="C67">
-        <v>0.04171521885739828</v>
+        <v>0.02495301801175638</v>
       </c>
       <c r="D67">
-        <v>0.002950758757917751</v>
+        <v>0.006952203034918137</v>
       </c>
       <c r="E67">
-        <v>-0.02506623851302707</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003429378986213377</v>
+      </c>
+      <c r="F67">
+        <v>-0.00184960780231352</v>
+      </c>
+      <c r="G67">
+        <v>-0.02728160192209116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05273940368575007</v>
+        <v>0.1252640989452676</v>
       </c>
       <c r="C68">
-        <v>0.1326505249020052</v>
+        <v>-0.2717865641683668</v>
       </c>
       <c r="D68">
-        <v>-0.07303085022088122</v>
+        <v>-0.001229522211125113</v>
       </c>
       <c r="E68">
-        <v>0.1995155064617144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.02060043152116988</v>
+      </c>
+      <c r="F68">
+        <v>0.01337107150262902</v>
+      </c>
+      <c r="G68">
+        <v>-0.02144513039556024</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0001112283938402055</v>
+        <v>0.07636817488729068</v>
       </c>
       <c r="C69">
-        <v>0.05618318056140065</v>
+        <v>0.059567246795967</v>
       </c>
       <c r="D69">
-        <v>0.01029536601133866</v>
+        <v>0.009480921685546749</v>
       </c>
       <c r="E69">
-        <v>-0.04415848041255859</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02971215747100854</v>
+      </c>
+      <c r="F69">
+        <v>0.03919681711615743</v>
+      </c>
+      <c r="G69">
+        <v>-0.01801998591231972</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.03688836226584784</v>
+        <v>0.1245043845636714</v>
       </c>
       <c r="C71">
-        <v>0.1218147280118025</v>
+        <v>-0.2294355594937705</v>
       </c>
       <c r="D71">
-        <v>-0.05496746320364299</v>
+        <v>0.007766361164912009</v>
       </c>
       <c r="E71">
-        <v>0.1909273018567771</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02670249884261707</v>
+      </c>
+      <c r="F71">
+        <v>0.01836164672095207</v>
+      </c>
+      <c r="G71">
+        <v>-0.03589959802078184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0003559723590445738</v>
+        <v>0.08778011994767257</v>
       </c>
       <c r="C72">
-        <v>0.1238376503378631</v>
+        <v>0.08010219084613728</v>
       </c>
       <c r="D72">
-        <v>0.01623612120444624</v>
+        <v>0.009743885578115759</v>
       </c>
       <c r="E72">
-        <v>-0.1568255643071398</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.01479381345850494</v>
+      </c>
+      <c r="F72">
+        <v>-0.03515212909897443</v>
+      </c>
+      <c r="G72">
+        <v>0.005768139414922867</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.04288140419812635</v>
+        <v>0.40989454115218</v>
       </c>
       <c r="C73">
-        <v>0.2373554742722923</v>
+        <v>0.09637659432351488</v>
       </c>
       <c r="D73">
-        <v>-0.08095553375816623</v>
+        <v>-0.009751389372234132</v>
       </c>
       <c r="E73">
-        <v>-0.1318440047734403</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.0646843234435357</v>
+      </c>
+      <c r="F73">
+        <v>-0.5333751404858468</v>
+      </c>
+      <c r="G73">
+        <v>0.1277784388093046</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.00267203733413961</v>
+        <v>0.1190065174211062</v>
       </c>
       <c r="C74">
-        <v>0.1204051547145019</v>
+        <v>0.1125104983132081</v>
       </c>
       <c r="D74">
-        <v>0.01195179174360508</v>
+        <v>0.01145777870259321</v>
       </c>
       <c r="E74">
-        <v>-0.1007713383089033</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.03789090550086437</v>
+      </c>
+      <c r="F74">
+        <v>0.07204808902340851</v>
+      </c>
+      <c r="G74">
+        <v>-0.01608571250419213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.009350241759073676</v>
+        <v>0.2647622438489331</v>
       </c>
       <c r="C75">
-        <v>0.237455917369689</v>
+        <v>0.1379560757168789</v>
       </c>
       <c r="D75">
-        <v>0.01217773831745982</v>
+        <v>0.03323478310063626</v>
       </c>
       <c r="E75">
-        <v>-0.1575287992979069</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.07576793164244849</v>
+      </c>
+      <c r="F75">
+        <v>0.2189109772496979</v>
+      </c>
+      <c r="G75">
+        <v>0.03046961070342942</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.001592985079853202</v>
+        <v>0.1423172006957893</v>
       </c>
       <c r="C76">
-        <v>0.2176353767556126</v>
+        <v>0.117862893089653</v>
       </c>
       <c r="D76">
-        <v>0.03639211298065801</v>
+        <v>0.02335530923429599</v>
       </c>
       <c r="E76">
-        <v>-0.1601022395280694</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.07143994162251167</v>
+      </c>
+      <c r="F76">
+        <v>0.1396312260249325</v>
+      </c>
+      <c r="G76">
+        <v>-0.006056448098766487</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.009316909237254273</v>
+        <v>0.06309446081411707</v>
       </c>
       <c r="C77">
-        <v>0.02759946487922141</v>
+        <v>0.06110889426118751</v>
       </c>
       <c r="D77">
-        <v>0.01485446351854384</v>
+        <v>-0.01195681842694859</v>
       </c>
       <c r="E77">
-        <v>-0.0595738514802793</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04015276862877927</v>
+      </c>
+      <c r="F77">
+        <v>-0.02146432702286472</v>
+      </c>
+      <c r="G77">
+        <v>-0.03939193081444164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.003954349535748974</v>
+        <v>0.04100731522164725</v>
       </c>
       <c r="C78">
-        <v>0.02504483769730756</v>
+        <v>0.05128894165707867</v>
       </c>
       <c r="D78">
-        <v>0.01655876840448113</v>
+        <v>-0.00505964676900385</v>
       </c>
       <c r="E78">
-        <v>-0.05004863494713022</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.01612916774151739</v>
+      </c>
+      <c r="F78">
+        <v>-0.04162496495425172</v>
+      </c>
+      <c r="G78">
+        <v>-0.02958506702453646</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.02000901511126094</v>
+        <v>0.06495286795464673</v>
       </c>
       <c r="C80">
-        <v>0.2073830730660853</v>
+        <v>0.07221135927061365</v>
       </c>
       <c r="D80">
-        <v>0.9239907426256226</v>
+        <v>-0.01259202580017139</v>
       </c>
       <c r="E80">
-        <v>0.2283017167472552</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.07592925290302631</v>
+      </c>
+      <c r="F80">
+        <v>-0.0376183057909828</v>
+      </c>
+      <c r="G80">
+        <v>-0.9187486655033054</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.007722876519858806</v>
+        <v>0.1480267025260394</v>
       </c>
       <c r="C81">
-        <v>0.1782619703964292</v>
+        <v>0.09006808368496468</v>
       </c>
       <c r="D81">
-        <v>0.02278534004551049</v>
+        <v>0.01719698556503535</v>
       </c>
       <c r="E81">
-        <v>-0.1175025829510875</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04747423706067572</v>
+      </c>
+      <c r="F81">
+        <v>0.1381079265949218</v>
+      </c>
+      <c r="G81">
+        <v>-0.01013873467093699</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.04394316166952849</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03376570118554091</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002318419325809163</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.01840575555578779</v>
+      </c>
+      <c r="F82">
+        <v>6.282935513659493e-05</v>
+      </c>
+      <c r="G82">
+        <v>0.005389436117203035</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.006165356142802201</v>
+        <v>0.03029252382560686</v>
       </c>
       <c r="C83">
-        <v>0.03277650175604752</v>
+        <v>0.01939338900243899</v>
       </c>
       <c r="D83">
-        <v>0.0003454427135697575</v>
+        <v>-0.004873025099473473</v>
       </c>
       <c r="E83">
-        <v>-0.01815420188939335</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02592934601948179</v>
+      </c>
+      <c r="F83">
+        <v>-0.02318897615119545</v>
+      </c>
+      <c r="G83">
+        <v>-0.02651169759563688</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01387114129186527</v>
+        <v>0.2436892465414578</v>
       </c>
       <c r="C85">
-        <v>0.2175628713520422</v>
+        <v>0.1427431371926063</v>
       </c>
       <c r="D85">
-        <v>0.01188568507890182</v>
+        <v>0.0221889130892757</v>
       </c>
       <c r="E85">
-        <v>-0.1925769756061744</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1201173258589332</v>
+      </c>
+      <c r="F85">
+        <v>0.2073615204919904</v>
+      </c>
+      <c r="G85">
+        <v>0.05387305874604015</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.003341505018045873</v>
+        <v>0.01007288252769294</v>
       </c>
       <c r="C86">
-        <v>0.007479239525653107</v>
+        <v>0.0232389145061651</v>
       </c>
       <c r="D86">
-        <v>0.01353414536197866</v>
+        <v>-0.009683210315867942</v>
       </c>
       <c r="E86">
-        <v>-0.02801794000777893</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02179699243111302</v>
+      </c>
+      <c r="F86">
+        <v>-0.02420220513888909</v>
+      </c>
+      <c r="G86">
+        <v>-0.05255586787329387</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.002518539284846567</v>
+        <v>0.0165247407096423</v>
       </c>
       <c r="C87">
-        <v>0.0208706476686632</v>
+        <v>0.02754861105790881</v>
       </c>
       <c r="D87">
-        <v>0.01310374684054369</v>
+        <v>-0.01124868612560909</v>
       </c>
       <c r="E87">
-        <v>-0.03855914156468662</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.07741669536370156</v>
+      </c>
+      <c r="F87">
+        <v>-0.06059687088871359</v>
+      </c>
+      <c r="G87">
+        <v>-0.03787911410653651</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.004758554290112123</v>
+        <v>0.08889508786629276</v>
       </c>
       <c r="C88">
-        <v>0.05511113239715237</v>
+        <v>0.05170317002275483</v>
       </c>
       <c r="D88">
-        <v>-0.005188783264990707</v>
+        <v>-0.02082569943281307</v>
       </c>
       <c r="E88">
-        <v>-0.01871111481685158</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.003779552878188222</v>
+      </c>
+      <c r="F88">
+        <v>0.003385660806270417</v>
+      </c>
+      <c r="G88">
+        <v>-0.02354902132051444</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.07496391274526626</v>
+        <v>0.2121528042865475</v>
       </c>
       <c r="C89">
-        <v>0.2447302206015458</v>
+        <v>-0.3751668463245774</v>
       </c>
       <c r="D89">
-        <v>-0.1451948066621848</v>
+        <v>0.009658388521464853</v>
       </c>
       <c r="E89">
-        <v>0.3436146907363273</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.009763538542127156</v>
+      </c>
+      <c r="F89">
+        <v>0.03184154756666124</v>
+      </c>
+      <c r="G89">
+        <v>-0.02654944959781102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.05446696142478919</v>
+        <v>0.1760507911418096</v>
       </c>
       <c r="C90">
-        <v>0.1496415336153851</v>
+        <v>-0.3400457859517646</v>
       </c>
       <c r="D90">
-        <v>-0.1201096243770057</v>
+        <v>0.01205181737979644</v>
       </c>
       <c r="E90">
-        <v>0.2824460687046998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.007336222776160455</v>
+      </c>
+      <c r="F90">
+        <v>0.04466013846546993</v>
+      </c>
+      <c r="G90">
+        <v>-0.003604736630920557</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.008405176858779673</v>
+        <v>0.2152494742508456</v>
       </c>
       <c r="C91">
-        <v>0.2397195560341825</v>
+        <v>0.1306813290779625</v>
       </c>
       <c r="D91">
-        <v>0.01455619050104628</v>
+        <v>0.02655541787318231</v>
       </c>
       <c r="E91">
-        <v>-0.1943201198609498</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.08658273602826241</v>
+      </c>
+      <c r="F91">
+        <v>0.1958177771776418</v>
+      </c>
+      <c r="G91">
+        <v>0.01145154760363401</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.02239918171825922</v>
+        <v>0.2066383563663371</v>
       </c>
       <c r="C92">
-        <v>0.3070889499455685</v>
+        <v>-0.2748312601016722</v>
       </c>
       <c r="D92">
-        <v>-0.1119776296696181</v>
+        <v>0.05583775391704754</v>
       </c>
       <c r="E92">
-        <v>0.2480712297410845</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.004866596374370312</v>
+      </c>
+      <c r="F92">
+        <v>0.1377851908259439</v>
+      </c>
+      <c r="G92">
+        <v>-0.06074872996613712</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.05413747680260764</v>
+        <v>0.2003109905920049</v>
       </c>
       <c r="C93">
-        <v>0.2203923878188993</v>
+        <v>-0.3361154083176828</v>
       </c>
       <c r="D93">
-        <v>-0.1563559873496517</v>
+        <v>0.01885728975760047</v>
       </c>
       <c r="E93">
-        <v>0.3272248043150546</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.01279378318014725</v>
+      </c>
+      <c r="F93">
+        <v>0.01698586605325907</v>
+      </c>
+      <c r="G93">
+        <v>0.0002036253921480985</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.02930264187121628</v>
+        <v>0.2771263505496572</v>
       </c>
       <c r="C94">
-        <v>0.2881441620705031</v>
+        <v>0.1467420560231185</v>
       </c>
       <c r="D94">
-        <v>-0.02645517999384515</v>
+        <v>0.0143813462101601</v>
       </c>
       <c r="E94">
-        <v>-0.1855377408442626</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.09878816653611269</v>
+      </c>
+      <c r="F94">
+        <v>0.395502274161543</v>
+      </c>
+      <c r="G94">
+        <v>0.1134305064541749</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.009021337347345035</v>
+        <v>0.08396355265454758</v>
       </c>
       <c r="C95">
-        <v>0.0879706600825672</v>
+        <v>0.07453895795404204</v>
       </c>
       <c r="D95">
-        <v>-0.07085293524170315</v>
+        <v>0.008264541916722651</v>
       </c>
       <c r="E95">
-        <v>-0.06440011016216686</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07895194084882552</v>
+      </c>
+      <c r="F95">
+        <v>-0.1554501614737791</v>
+      </c>
+      <c r="G95">
+        <v>0.07340368158462568</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.01619270838972146</v>
+        <v>0.2145899171965729</v>
       </c>
       <c r="C98">
-        <v>0.211508953356511</v>
+        <v>0.04426701259719149</v>
       </c>
       <c r="D98">
-        <v>-0.04538015872029302</v>
+        <v>0.01857095550347658</v>
       </c>
       <c r="E98">
-        <v>-0.0775167347035456</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06556455037210061</v>
+      </c>
+      <c r="F98">
+        <v>-0.2394214237242581</v>
+      </c>
+      <c r="G98">
+        <v>0.03632742489596683</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008773707050691932</v>
+        <v>0.01380972234118459</v>
       </c>
       <c r="C101">
-        <v>0.02743378024240874</v>
+        <v>0.02052896306025941</v>
       </c>
       <c r="D101">
-        <v>0.006319735837903681</v>
+        <v>-0.008348024469275923</v>
       </c>
       <c r="E101">
-        <v>-0.02179021749325796</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.03528847213280535</v>
+      </c>
+      <c r="F101">
+        <v>0.02528543437089631</v>
+      </c>
+      <c r="G101">
+        <v>-0.03703819743563549</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01980851728678312</v>
+        <v>0.127557421182296</v>
       </c>
       <c r="C102">
-        <v>0.1271709232389001</v>
+        <v>0.0765348683493168</v>
       </c>
       <c r="D102">
-        <v>0.003230427926478382</v>
+        <v>0.001181213356607654</v>
       </c>
       <c r="E102">
-        <v>-0.08480723451774232</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.04412662255666948</v>
+      </c>
+      <c r="F102">
+        <v>0.0625630646341747</v>
+      </c>
+      <c r="G102">
+        <v>0.01452272238820475</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.00267340093400412</v>
+        <v>0.005785626071875681</v>
       </c>
       <c r="C103">
-        <v>0.0288156057227446</v>
+        <v>0.005464421197476616</v>
       </c>
       <c r="D103">
-        <v>0.01724046499132913</v>
+        <v>-0.0002960626947745818</v>
       </c>
       <c r="E103">
-        <v>-0.02414945985385453</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.001842755590048123</v>
+      </c>
+      <c r="F103">
+        <v>0.009365578408683009</v>
+      </c>
+      <c r="G103">
+        <v>-0.01365862449275774</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.980751809284131</v>
+        <v>0.04268283096965753</v>
       </c>
       <c r="C104">
-        <v>-0.1344954622474369</v>
+        <v>-0.04605656092100716</v>
       </c>
       <c r="D104">
-        <v>0.03008411243587684</v>
+        <v>-0.9858227476809126</v>
       </c>
       <c r="E104">
-        <v>-0.04988872501953166</v>
+        <v>-0.04491289154502284</v>
+      </c>
+      <c r="F104">
+        <v>0.03789587086807196</v>
+      </c>
+      <c r="G104">
+        <v>0.0006089804651590159</v>
       </c>
     </row>
   </sheetData>
